--- a/DDAf_2025_Tableau_annexe_Tab18.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab18.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA33069A-62D3-4511-A025-A923BE569180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC51454-8359-49CA-B5A5-40125FB0536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{CD1D99AA-BE83-4F0F-BC28-456BC7FB5A12}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{1D8BD4C8-4116-4233-9F99-43A47B9C1814}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab18'!$A$2:$X$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab18'!$A$1:$K$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab18'!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,117 +36,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="197">
-  <si>
-    <t>Table 18: Electricity and sustainable energy</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Population with access to electricity (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Urban population with access to electricity (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Rural population with access to electricity (thousands), 2020</t>
-  </si>
-  <si>
-    <t>Percentage of population with access to electricity, 2020</t>
-  </si>
-  <si>
-    <t>Percentage of urban population with access to electricity, 2020</t>
-  </si>
-  <si>
-    <t>Percentage of rural population with access to electricity, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into solar power in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into wind power in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into geothermal energy in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into renewable hydropower in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into biofuels in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into renewable energy n.e.s. in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into nuclear power in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Public flows into fossil fuels in millions of 2020 USD, 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from solar power in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from wind power in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from geothermal energy in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from renewable hydropower in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from biofuels in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from renewable energy n.e.s. in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from nuclear power in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from pumped storage in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Installed electricity capacity from fossil fuels in Megawatts (MW), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from solar power in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from wind power in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from geothermal energy in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from renewable hydropower in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from biofuels in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from renewable energy n.e.s. in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from nuclear power in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from pumped storage in gigawatt-hours (GWh), 2020</t>
-  </si>
-  <si>
-    <t>Electricity generation from fossil fuels in gigawatt-hours (GWh), 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="199">
+  <si>
+    <t>Tableau 18 : Électricité et énergie durable</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Population ayant accès à l'électricité (milliers), 2020</t>
+  </si>
+  <si>
+    <t>Population urbaine ayant accès à l'électricité (milliers), 2020</t>
+  </si>
+  <si>
+    <t>Population rurale ayant accès à l'électricité (milliers), 2020</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population ayant accès à l'électricité, 2020</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population urbaine ayant accès à l'électricité, 2020</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population rurale ayant accès à l'électricité, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie solaire en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie éolienne en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie géothermique en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'hydroélectricité renouvelable en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers les biocarburants en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers les énergies renouvelables n.d.a. en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers le nucléaire en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Flux publics vers les combustibles fossiles en millions de dollars US de 2020, 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité solaire en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité éolienne en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité géothermique en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité hydroélectrique renouvelable en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité à partir de biocarburants en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité renouvelables n.d.a. en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité nucléaire en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité du pompage-turbinage en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Capacité installée d'électricité à partir de combustibles fossiles en mégawatts (MW), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité solaire en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité éolienne en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité géothermique en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'énergie hydroélectrique renouvelable en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité à partir de biocarburants en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité renouvelables n.d.a. en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité nucléaire en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité par pompage-turbinage en gigawatt-heures (GWh), 2020</t>
+  </si>
+  <si>
+    <t>Production d'électricité à partir de combustibles fossiles en gigawatt-heures (GWh), 2020</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>..</t>
@@ -186,19 +185,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -207,7 +206,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -219,58 +221,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -282,13 +284,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -306,7 +308,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -324,79 +326,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -408,7 +410,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -420,7 +422,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -432,13 +434,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -468,7 +470,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -483,22 +485,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -507,19 +509,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -537,107 +539,113 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Access to electricity statistics are taken from reported percentages of population with access to electricity reported in World Bank World Development Indicators adjusted with UN estimates of rural, urban, and total populations. Interpolation was used on missing figures, and adjustments were made to total figures consistent with figures for urban and rural populations.</t>
-  </si>
-  <si>
-    <t>Source: World Bank World Development Indicators (electricity access figures downloaded 25/01/2024), World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division, Renewable Energy Statistics 2022, International Renewable Energy Agency (IRENA)(retrieved 06/10/2022).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Les statistiques sur l'accès à l'électricité sont tirées des pourcentages de la population ayant accès à l'électricité dans les Indicateurs du développement dans le monde de la Banque mondiale ajustés avec les estimations des Nations Unies sur les populations rurales, urbaines et totales. Des imputation ont été utilisée sur les chiffres manquants et des ajustements ont été apportés aux chiffres totaux pour plus de cohérence entre les valeurs pour les populations urbaines et rurales.</t>
+  </si>
+  <si>
+    <t>Source : Indicateurs du développement mondial de la Banque mondiale (données sur l’accès à l’électricité téléchargées le 25/01/2024), Perspectives de la population mondiale 2024 – Division de la population du Département des affaires économiques et sociales des Nations Unies, Statistiques sur les énergies renouvelables 2022, Agence internationale pour les énergies renouvelables (IRENA) (consulté le 06/10/2022).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -776,17 +784,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="11"/>
-      <color rgb="FFA54917"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
@@ -1007,7 +1012,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1463,8 +1468,15 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1747,19 +1759,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E0B9C5-92B3-41B6-892F-2C8A21852CB6}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AH113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1497A68D-70E2-45D6-8CCE-92AB1A9963B7}">
+  <dimension ref="A1:AH116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="11.453125" style="156" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="160" customWidth="1"/>
+    <col min="4" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" style="161" customWidth="1"/>
+    <col min="13" max="34" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2944,9 +2956,11 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
+      <c r="A13" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="48">
         <v>103719.548677</v>
@@ -3047,10 +3061,10 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="35">
         <v>1148.1502760000001</v>
@@ -3151,10 +3165,10 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="35">
         <v>16853.388793999999</v>
@@ -3255,10 +3269,10 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="35">
         <v>774.10071200000004</v>
@@ -3359,10 +3373,10 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="57">
         <v>1877.4900110000001</v>
@@ -3463,10 +3477,10 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="57">
         <v>2801.6087299999999</v>
@@ -3567,10 +3581,10 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="20">
         <v>19293.989598</v>
@@ -3671,10 +3685,10 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="57">
         <v>1144.8841560000001</v>
@@ -3775,10 +3789,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="57">
         <v>2115.8330289999999</v>
@@ -3879,10 +3893,10 @@
     </row>
     <row r="22" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="66">
         <v>166.99008000000001</v>
@@ -3982,9 +3996,11 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
+      <c r="A23" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="48">
         <v>46176.435385999997</v>
@@ -4085,10 +4101,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="75">
         <v>686.65238399999998</v>
@@ -4189,10 +4205,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="35">
         <v>712.84626000000003</v>
@@ -4293,10 +4309,10 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="35">
         <v>1691.7127800000001</v>
@@ -4397,10 +4413,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="35">
         <v>60766.929880999996</v>
@@ -4501,10 +4517,10 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="35">
         <v>37335.393810000001</v>
@@ -4605,10 +4621,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="35">
         <v>9265.1379199999992</v>
@@ -4709,10 +4725,10 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="35">
         <v>1276.806885</v>
@@ -4813,10 +4829,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="35">
         <v>5905.7583240000004</v>
@@ -4917,10 +4933,10 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="35">
         <v>120.291</v>
@@ -5021,10 +5037,10 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="35">
         <v>8308.9443090000004</v>
@@ -5125,10 +5141,10 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="57">
         <v>780.98809100000005</v>
@@ -5229,10 +5245,10 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="35">
         <v>27933.170907</v>
@@ -5333,10 +5349,10 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="35">
         <v>24328.146401999998</v>
@@ -5437,10 +5453,10 @@
     </row>
     <row r="37" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="38">
         <v>18716.460992</v>
@@ -5540,9 +5556,11 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="46"/>
+      <c r="A38" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B38" s="47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="48">
         <v>197829.23994500001</v>
@@ -5643,10 +5661,10 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="84">
         <v>43909.964726999999</v>
@@ -5747,10 +5765,10 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" s="35">
         <v>109315.124</v>
@@ -5851,10 +5869,10 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" s="92" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="57">
         <v>4889.5069059999996</v>
@@ -5955,10 +5973,10 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="57">
         <v>2088.4594740000002</v>
@@ -6059,10 +6077,10 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" s="35">
         <v>36584.207999999999</v>
@@ -6163,10 +6181,10 @@
     </row>
     <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" s="66">
         <v>11962.082942999999</v>
@@ -6266,9 +6284,11 @@
       </c>
     </row>
     <row r="45" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="46"/>
+      <c r="A45" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="B45" s="47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="48">
         <v>208749.34604999999</v>
@@ -6369,10 +6389,10 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="75">
         <v>5358.7692900000002</v>
@@ -6473,10 +6493,10 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C47" s="35">
         <v>3973.5576500000002</v>
@@ -6577,10 +6597,10 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48" s="92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C48" s="57">
         <v>482.25515999999999</v>
@@ -6681,10 +6701,10 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="35">
         <v>20211.898851000002</v>
@@ -6785,10 +6805,10 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="35">
         <v>1564.785926</v>
@@ -6889,10 +6909,10 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C51" s="20">
         <v>27232.188886</v>
@@ -6993,10 +7013,10 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C52" s="35">
         <v>5976.9188009999998</v>
@@ -7097,10 +7117,10 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" s="35">
         <v>672.42717000000005</v>
@@ -7201,10 +7221,10 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="35">
         <v>1421.252064</v>
@@ -7305,10 +7325,10 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C55" s="35">
         <v>10987.201016000001</v>
@@ -7409,10 +7429,10 @@
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C56" s="35">
         <v>4435.1936310000001</v>
@@ -7513,10 +7533,10 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C57" s="35">
         <v>118553.884274</v>
@@ -7617,10 +7637,10 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" s="35">
         <v>10795.467817000001</v>
@@ -7721,10 +7741,10 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" s="35">
         <v>2081.0027540000001</v>
@@ -7825,10 +7845,10 @@
     </row>
     <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C60" s="38">
         <v>4690.3185199999998</v>
@@ -7930,7 +7950,7 @@
     <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="46"/>
       <c r="B61" s="47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C61" s="48">
         <v>218437.12181000001</v>
@@ -8032,7 +8052,7 @@
     <row r="62" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="93"/>
       <c r="B62" s="94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C62" s="95">
         <v>774911.69186799997</v>
@@ -8134,7 +8154,7 @@
     <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="93"/>
       <c r="B63" s="94" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C63" s="95">
         <v>6313464.7429809999</v>
@@ -8236,7 +8256,7 @@
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="103"/>
       <c r="B64" s="104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C64" s="105">
         <v>629796.05192899995</v>
@@ -8338,7 +8358,7 @@
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="103"/>
       <c r="B65" s="113" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C65" s="114">
         <v>4153308.1395740001</v>
@@ -8440,7 +8460,7 @@
     <row r="66" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="103"/>
       <c r="B66" s="122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C66" s="123">
         <v>7088376.4348489996</v>
@@ -8542,7 +8562,7 @@
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="103"/>
       <c r="B67" s="113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" s="114">
         <v>339212.69964100001</v>
@@ -8644,7 +8664,7 @@
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="103"/>
       <c r="B68" s="113" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C68" s="114">
         <v>423357.91327199998</v>
@@ -8746,7 +8766,7 @@
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="103"/>
       <c r="B69" s="113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69" s="114">
         <v>107508.887493</v>
@@ -8848,7 +8868,7 @@
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="103"/>
       <c r="B70" s="113" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" s="114">
         <v>67804.225749999998</v>
@@ -8950,7 +8970,7 @@
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="103"/>
       <c r="B71" s="113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C71" s="114">
         <v>218437.12181000001</v>
@@ -9052,7 +9072,7 @@
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="103"/>
       <c r="B72" s="113" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="114">
         <v>154554.73425000001</v>
@@ -9154,7 +9174,7 @@
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="103"/>
       <c r="B73" s="113" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" s="114">
         <v>158690.572866</v>
@@ -9256,7 +9276,7 @@
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="103"/>
       <c r="B74" s="113" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C74" s="114">
         <v>99434.222049999997</v>
@@ -9358,7 +9378,7 @@
     <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="103"/>
       <c r="B75" s="113" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C75" s="131">
         <v>26463.512977999999</v>
@@ -9460,7 +9480,7 @@
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="103"/>
       <c r="B76" s="139" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" s="140">
         <v>643167.93443400005</v>
@@ -9562,7 +9582,7 @@
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="103"/>
       <c r="B77" s="113" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C77" s="114">
         <v>427342.60262199998</v>
@@ -9664,7 +9684,7 @@
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="103"/>
       <c r="B78" s="113" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" s="114">
         <v>447756.73404399998</v>
@@ -9766,7 +9786,7 @@
     <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="103"/>
       <c r="B79" s="122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C79" s="123">
         <v>1379808.4513650001</v>
@@ -9868,7 +9888,7 @@
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="103"/>
       <c r="B80" s="139" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C80" s="140">
         <v>75813.022324000005</v>
@@ -9970,7 +9990,7 @@
     <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="103"/>
       <c r="B81" s="113" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C81" s="114">
         <v>481476.80122999998</v>
@@ -10072,7 +10092,7 @@
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="103"/>
       <c r="B82" s="113" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C82" s="114">
         <v>699098.66954399995</v>
@@ -10174,7 +10194,7 @@
     <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="103"/>
       <c r="B83" s="122" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" s="123">
         <v>5831987.9417509995</v>
@@ -10276,7 +10296,7 @@
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="103"/>
       <c r="B84" s="139" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" s="140">
         <v>137187.848299</v>
@@ -10378,7 +10398,7 @@
     <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="103"/>
       <c r="B85" s="148" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C85" s="114">
         <v>96806.886348999993</v>
@@ -10480,7 +10500,7 @@
     <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="103"/>
       <c r="B86" s="113" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" s="114">
         <v>466812.51703300001</v>
@@ -10582,7 +10602,7 @@
     <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="103"/>
       <c r="B87" s="113" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" s="114">
         <v>2152447.8365469999</v>
@@ -10684,7 +10704,7 @@
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="103"/>
       <c r="B88" s="113" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="114">
         <v>110024.10565500001</v>
@@ -10786,7 +10806,7 @@
     <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="103"/>
       <c r="B89" s="113" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C89" s="114">
         <v>2669821.5071169999</v>
@@ -10888,7 +10908,7 @@
     <row r="90" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="103"/>
       <c r="B90" s="122" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" s="123">
         <v>1366093.171045</v>
@@ -10990,7 +11010,7 @@
     <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="103"/>
       <c r="B91" s="139" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" s="140">
         <v>273186.531143</v>
@@ -11092,7 +11112,7 @@
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="103"/>
       <c r="B92" s="113" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C92" s="114">
         <v>317109.99262899999</v>
@@ -11194,7 +11214,7 @@
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="103"/>
       <c r="B93" s="113" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" s="114">
         <v>3405.4226789999998</v>
@@ -11296,7 +11316,7 @@
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="103"/>
       <c r="B94" s="113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" s="114">
         <v>46327.759940000004</v>
@@ -11398,7 +11418,7 @@
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="103"/>
       <c r="B95" s="113" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95" s="114">
         <v>132010.25326699999</v>
@@ -11500,7 +11520,7 @@
     <row r="96" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="103"/>
       <c r="B96" s="122" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96" s="123">
         <v>188010.36657300001</v>
@@ -11602,7 +11622,7 @@
     <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="103"/>
       <c r="B97" s="139" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C97" s="140">
         <v>469013.57543700002</v>
@@ -11704,7 +11724,7 @@
     <row r="98" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="103"/>
       <c r="B98" s="122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C98" s="123">
         <v>749987.52112599998</v>
@@ -11841,7 +11861,7 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" s="152"/>
       <c r="D100" s="152"/>
@@ -11878,7 +11898,7 @@
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C101" s="152"/>
       <c r="D101" s="152"/>
@@ -11915,7 +11935,7 @@
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C102" s="152"/>
       <c r="D102" s="152"/>
@@ -11952,7 +11972,7 @@
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C103" s="152"/>
       <c r="D103" s="152"/>
@@ -11989,7 +12009,7 @@
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C104" s="152"/>
       <c r="D104" s="152"/>
@@ -12026,7 +12046,7 @@
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C105" s="152"/>
       <c r="D105" s="152"/>
@@ -12062,6 +12082,9 @@
       <c r="AH105" s="152"/>
     </row>
     <row r="106" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B106" s="153"/>
       <c r="C106" s="152"/>
       <c r="D106" s="152"/>
@@ -12096,10 +12119,8 @@
       <c r="AG106" s="152"/>
       <c r="AH106" s="152"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B107" s="154" t="s">
-        <v>192</v>
-      </c>
+    <row r="107" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="153"/>
       <c r="C107" s="152"/>
       <c r="D107" s="152"/>
       <c r="E107" s="152"/>
@@ -12134,7 +12155,9 @@
       <c r="AH107" s="152"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="162" t="s">
+        <v>197</v>
+      </c>
       <c r="C108" s="152"/>
       <c r="D108" s="152"/>
       <c r="E108" s="152"/>
@@ -12169,9 +12192,7 @@
       <c r="AH108" s="152"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B109" s="157" t="s">
-        <v>194</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="152"/>
       <c r="D109" s="152"/>
       <c r="E109" s="152"/>
@@ -12206,8 +12227,8 @@
       <c r="AH109" s="152"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B110" s="157" t="s">
-        <v>195</v>
+      <c r="B110" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="C110" s="152"/>
       <c r="D110" s="152"/>
@@ -12243,8 +12264,8 @@
       <c r="AH110" s="152"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B111" s="157" t="s">
-        <v>196</v>
+      <c r="B111" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C111" s="152"/>
       <c r="D111" s="152"/>
@@ -12280,8 +12301,8 @@
       <c r="AH111" s="152"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>193</v>
+      <c r="B112" s="162" t="s">
+        <v>198</v>
       </c>
       <c r="C112" s="152"/>
       <c r="D112" s="152"/>
@@ -12317,7 +12338,9 @@
       <c r="AH112" s="152"/>
     </row>
     <row r="113" spans="2:34" x14ac:dyDescent="0.35">
-      <c r="B113" s="155"/>
+      <c r="B113" s="162" t="s">
+        <v>196</v>
+      </c>
       <c r="C113" s="152"/>
       <c r="D113" s="152"/>
       <c r="E113" s="152"/>
@@ -12351,17 +12374,83 @@
       <c r="AG113" s="152"/>
       <c r="AH113" s="152"/>
     </row>
+    <row r="114" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B114" s="154"/>
+      <c r="C114" s="152"/>
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="152"/>
+      <c r="K114" s="152"/>
+      <c r="L114" s="152"/>
+      <c r="M114" s="152"/>
+      <c r="N114" s="152"/>
+      <c r="O114" s="152"/>
+      <c r="P114" s="152"/>
+      <c r="Q114" s="152"/>
+      <c r="R114" s="152"/>
+      <c r="S114" s="152"/>
+      <c r="T114" s="152"/>
+      <c r="U114" s="152"/>
+      <c r="V114" s="152"/>
+      <c r="W114" s="152"/>
+      <c r="X114" s="152"/>
+      <c r="Y114" s="152"/>
+      <c r="Z114" s="152"/>
+      <c r="AA114" s="152"/>
+      <c r="AB114" s="152"/>
+      <c r="AC114" s="152"/>
+      <c r="AD114" s="152"/>
+      <c r="AE114" s="152"/>
+      <c r="AF114" s="152"/>
+      <c r="AG114" s="152"/>
+      <c r="AH114" s="152"/>
+    </row>
+    <row r="115" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B115" s="155"/>
+      <c r="C115" s="156"/>
+      <c r="D115" s="156"/>
+      <c r="E115" s="157"/>
+      <c r="F115" s="156"/>
+      <c r="G115" s="157"/>
+      <c r="H115" s="156"/>
+      <c r="I115" s="157"/>
+      <c r="J115" s="156"/>
+      <c r="K115" s="157"/>
+      <c r="L115" s="158"/>
+      <c r="M115" s="159"/>
+      <c r="N115" s="159"/>
+      <c r="O115" s="158"/>
+    </row>
+    <row r="116" spans="2:34" x14ac:dyDescent="0.35">
+      <c r="B116" s="155"/>
+      <c r="C116" s="156"/>
+      <c r="D116" s="156"/>
+      <c r="E116" s="157"/>
+      <c r="F116" s="156"/>
+      <c r="G116" s="157"/>
+      <c r="H116" s="156"/>
+      <c r="I116" s="157"/>
+      <c r="J116" s="156"/>
+      <c r="K116" s="157"/>
+      <c r="L116" s="158"/>
+      <c r="M116" s="159"/>
+      <c r="N116" s="159"/>
+      <c r="O116" s="158"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{211833FA-B3FA-4D40-83A0-BFEF2F8329F7}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{CA119611-0005-438D-83D2-2EBDEC5DEBBE}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{2D32923D-3248-45BC-B436-6B36627BEDFE}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{4B4A4AC3-FC25-4A16-A716-AF07D892A359}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{7411CF0D-1805-43FA-AFE0-4F80D6F92D2A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CB9AF029-C10C-402B-9A28-15AB45256E54}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BED25002-207A-40B2-97AE-EF3BC67103D9}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4904D5BB-38AB-47DF-B648-6B71766B4884}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{E6F3E56D-ECC4-42FE-A3AC-5E2A8D3C18A2}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{5B984525-3369-4DB8-9601-80D6EAAA9F53}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{DEDCFA76-204C-4D4E-BA3A-B55DC80C902A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
